--- a/awm/doc/log/log_201608040111_lipenghui.xlsx
+++ b/awm/doc/log/log_201608040111_lipenghui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -167,6 +167,42 @@
   </si>
   <si>
     <t>第十一周</t>
+  </si>
+  <si>
+    <t>开始尝试写出自己的实体类</t>
+  </si>
+  <si>
+    <t>简单的练习</t>
+  </si>
+  <si>
+    <t>对于代码理解不是很透彻</t>
+  </si>
+  <si>
+    <t>继续写自己的实体类</t>
+  </si>
+  <si>
+    <t>有了深一步的认识</t>
+  </si>
+  <si>
+    <t>把实体类尽快的规划清楚</t>
+  </si>
+  <si>
+    <t>完成自己的实体类</t>
+  </si>
+  <si>
+    <t>进行完整的实现</t>
+  </si>
+  <si>
+    <t>完成了实体类</t>
+  </si>
+  <si>
+    <t>往实体类里面添加数据</t>
+  </si>
+  <si>
+    <t>开始练习</t>
+  </si>
+  <si>
+    <t>不熟悉 容易出错</t>
   </si>
 </sst>
 </file>
@@ -174,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -190,6 +226,119 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,74 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,54 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,18 +377,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,6 +425,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,61 +491,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,85 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,16 +572,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,21 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,22 +628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +657,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,137 +688,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +833,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1117,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1503,16 +1551,272 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="17" ht="39" customHeight="1" spans="1:12">
+      <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3">
         <v>43234</v>
       </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" ht="8" customHeight="1" spans="1:12">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" ht="3" customHeight="1" spans="1:12">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="7">
+        <v>43235</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="7">
+        <v>43236</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7">
+        <v>43237</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="68">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1561,6 +1865,26 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="I17:L19"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:H22"/>
+    <mergeCell ref="I20:L22"/>
+    <mergeCell ref="C23:E26"/>
+    <mergeCell ref="F23:H26"/>
+    <mergeCell ref="I23:L26"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:H29"/>
+    <mergeCell ref="I27:L29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/awm/doc/log/log_201608040111_lipenghui.xlsx
+++ b/awm/doc/log/log_201608040111_lipenghui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13410" windowHeight="9285"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="日报" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -246,6 +246,36 @@
   </si>
   <si>
     <t>进行查验</t>
+  </si>
+  <si>
+    <t>接触genkins</t>
+  </si>
+  <si>
+    <t>摸索</t>
+  </si>
+  <si>
+    <t>装genkins</t>
+  </si>
+  <si>
+    <t>jdk版本不对</t>
+  </si>
+  <si>
+    <t>重装jdk</t>
+  </si>
+  <si>
+    <t>装载jdk</t>
+  </si>
+  <si>
+    <t>jdk装好</t>
+  </si>
+  <si>
+    <t>Tomcat运行出现问题</t>
+  </si>
+  <si>
+    <t>装好jenkins</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -253,8 +283,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -268,7 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,17 +306,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,9 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,16 +349,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +382,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,14 +393,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,6 +410,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -396,16 +433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +450,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +492,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,25 +516,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,73 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,48 +631,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +641,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -632,6 +677,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -639,16 +693,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,30 +741,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -719,145 +749,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:K39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1972,46 +2002,73 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" ht="56" customHeight="1" spans="1:11">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="5">
+        <v>43267</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" ht="56" customHeight="1" spans="1:11">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="5">
+        <v>43268</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" ht="56" customHeight="1" spans="1:11">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="5">
+        <v>43269</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" ht="56" customHeight="1" spans="2:11">
-      <c r="B43" s="2"/>
+    <row r="43" ht="56" customHeight="1" spans="1:11">
+      <c r="A43" s="5">
+        <v>43270</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2022,14 +2079,21 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" ht="56" customHeight="1" spans="2:11">
-      <c r="B44" s="2"/>
+    <row r="44" ht="56" customHeight="1" spans="1:11">
+      <c r="A44" s="5">
+        <v>43271</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
